--- a/rhla_analysis/rhla1_6_uniform_result/k2.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k2.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.004693965305088092</v>
+        <v>0.004837746242030893</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05541438786133589</v>
+        <v>0.05625457513929993</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1560102301790281</v>
+        <v>0.1116768499660557</v>
       </c>
       <c r="D2" t="n">
-        <v>11.80545322763009</v>
+        <v>11.62826083157354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.005951133022532674</v>
+        <v>0.005743237012904637</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06334943874650885</v>
+        <v>0.06249809071611862</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1453537936913896</v>
+        <v>0.1076035302104549</v>
       </c>
       <c r="D3" t="n">
-        <v>10.64493744412198</v>
+        <v>10.8820323061176</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.00292345006200122</v>
+        <v>0.002733383081055265</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05823321790219377</v>
+        <v>0.05836890074290117</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1018329938900204</v>
       </c>
       <c r="D4" t="n">
-        <v>19.91934757467031</v>
+        <v>21.35408722891741</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.005747846838685613</v>
+        <v>0.006036500711790173</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06465783548411592</v>
+        <v>0.06491624844269317</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1483375959079284</v>
+        <v>0.09164969450101833</v>
       </c>
       <c r="D5" t="n">
-        <v>11.24905330617709</v>
+        <v>10.7539535804083</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.005554143870168984</v>
+        <v>0.005657571018423883</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07795632747657306</v>
+        <v>0.07682717651265722</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1427962489343564</v>
+        <v>0.09164969450101833</v>
       </c>
       <c r="D6" t="n">
-        <v>14.03570546583649</v>
+        <v>13.57953373673428</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.004452693125647766</v>
+        <v>0.004406305225658548</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0672779331360867</v>
+        <v>0.06701399114681258</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1334185848252344</v>
+        <v>0.09300746775288526</v>
       </c>
       <c r="D7" t="n">
-        <v>15.10949244369929</v>
+        <v>15.20865843713697</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.005292043865971604</v>
+        <v>0.005534029679209651</v>
       </c>
       <c r="B8" t="n">
-        <v>0.05449852551668818</v>
+        <v>0.05470675288945571</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1398124467178176</v>
+        <v>0.09334691106585201</v>
       </c>
       <c r="D8" t="n">
-        <v>10.29819988211349</v>
+        <v>9.885518520975609</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.005374401265509116</v>
+        <v>0.004938753507638174</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06483009105839795</v>
+        <v>0.06526010154847253</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1445012787723785</v>
+        <v>0.0943652410047522</v>
       </c>
       <c r="D9" t="n">
-        <v>12.06275599003987</v>
+        <v>13.21388108305924</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.007826926013229275</v>
+        <v>0.007767157280455583</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07508759359558118</v>
+        <v>0.07548594135218847</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1351236146632566</v>
+        <v>0.0943652410047522</v>
       </c>
       <c r="D10" t="n">
-        <v>9.59349730260209</v>
+        <v>9.718606000438921</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.006354041794032234</v>
+        <v>0.006657172193917616</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07478932786079238</v>
+        <v>0.07411631001621607</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.09708078750848609</v>
       </c>
       <c r="D11" t="n">
-        <v>11.7703550409497</v>
+        <v>11.13330222762348</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_uniform_result/k2.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k2.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.004837746242030893</v>
+        <v>0.00483774624203086</v>
       </c>
       <c r="B2" t="n">
         <v>0.05625457513929993</v>
@@ -466,26 +466,26 @@
         <v>0.1116768499660557</v>
       </c>
       <c r="D2" t="n">
-        <v>11.62826083157354</v>
+        <v>11.62826083157362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.005743237012904637</v>
+        <v>0.005743237012904695</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06249809071611862</v>
+        <v>0.06249809071611863</v>
       </c>
       <c r="C3" t="n">
         <v>0.1076035302104549</v>
       </c>
       <c r="D3" t="n">
-        <v>10.8820323061176</v>
+        <v>10.88203230611749</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.002733383081055265</v>
+        <v>0.002733383081055279</v>
       </c>
       <c r="B4" t="n">
         <v>0.05836890074290117</v>
@@ -494,12 +494,12 @@
         <v>0.1018329938900204</v>
       </c>
       <c r="D4" t="n">
-        <v>21.35408722891741</v>
+        <v>21.35408722891731</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.006036500711790173</v>
+        <v>0.00603650071179016</v>
       </c>
       <c r="B5" t="n">
         <v>0.06491624844269317</v>
@@ -508,12 +508,12 @@
         <v>0.09164969450101833</v>
       </c>
       <c r="D5" t="n">
-        <v>10.7539535804083</v>
+        <v>10.75395358040832</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.005657571018423883</v>
+        <v>0.00565757101842387</v>
       </c>
       <c r="B6" t="n">
         <v>0.07682717651265722</v>
@@ -522,12 +522,12 @@
         <v>0.09164969450101833</v>
       </c>
       <c r="D6" t="n">
-        <v>13.57953373673428</v>
+        <v>13.57953373673431</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.004406305225658548</v>
+        <v>0.004406305225658531</v>
       </c>
       <c r="B7" t="n">
         <v>0.06701399114681258</v>
@@ -536,12 +536,12 @@
         <v>0.09300746775288526</v>
       </c>
       <c r="D7" t="n">
-        <v>15.20865843713697</v>
+        <v>15.20865843713703</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.005534029679209651</v>
+        <v>0.005534029679209673</v>
       </c>
       <c r="B8" t="n">
         <v>0.05470675288945571</v>
@@ -550,12 +550,12 @@
         <v>0.09334691106585201</v>
       </c>
       <c r="D8" t="n">
-        <v>9.885518520975609</v>
+        <v>9.885518520975568</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.004938753507638174</v>
+        <v>0.004938753507638194</v>
       </c>
       <c r="B9" t="n">
         <v>0.06526010154847253</v>
@@ -564,26 +564,26 @@
         <v>0.0943652410047522</v>
       </c>
       <c r="D9" t="n">
-        <v>13.21388108305924</v>
+        <v>13.21388108305919</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.007767157280455583</v>
+        <v>0.007767157280455585</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07548594135218847</v>
+        <v>0.07548594135218846</v>
       </c>
       <c r="C10" t="n">
         <v>0.0943652410047522</v>
       </c>
       <c r="D10" t="n">
-        <v>9.718606000438921</v>
+        <v>9.718606000438916</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.006657172193917616</v>
+        <v>0.006657172193917635</v>
       </c>
       <c r="B11" t="n">
         <v>0.07411631001621607</v>
@@ -592,7 +592,7 @@
         <v>0.09708078750848609</v>
       </c>
       <c r="D11" t="n">
-        <v>11.13330222762348</v>
+        <v>11.13330222762345</v>
       </c>
     </row>
   </sheetData>
